--- a/public/data/运量表.xlsx
+++ b/public/data/运量表.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6880"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2024" sheetId="1" r:id="rId1"/>
+    <sheet name="2025" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,21 +28,206 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
   <si>
-    <t>年份</t>
+    <t>公司名称</t>
   </si>
   <si>
-    <t>运输任务量</t>
+    <r>
+      <t>月计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万吨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
-    <t>所需船只数</t>
+    <r>
+      <t>月完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万吨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
-    <t>自有船数</t>
+    <r>
+      <t>月完成艘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
   </si>
   <si>
-    <t>租船数量</t>
+    <t>月进超欠(万吨)</t>
+  </si>
+  <si>
+    <r>
+      <t>年计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万吨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量(万吨)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年完成艘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+  </si>
+  <si>
+    <t>年进度超欠(万吨)</t>
+  </si>
+  <si>
+    <t>天津航运</t>
+  </si>
+  <si>
+    <t>远海内贸</t>
+  </si>
+  <si>
+    <t>海南公司</t>
+  </si>
+  <si>
+    <t>天津海运</t>
+  </si>
+  <si>
+    <t>武汉航运</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">总 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计</t>
+    </r>
+  </si>
+  <si>
+    <t>待更新</t>
   </si>
 </sst>
 </file>
@@ -56,13 +240,38 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -209,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +427,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -403,12 +618,53 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,145 +785,169 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -987,138 +1267,228 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.0909090909091" customWidth="1"/>
-    <col min="2" max="3" width="13.8181818181818" customWidth="1"/>
-    <col min="4" max="5" width="14.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="13.8166666666667" customWidth="1"/>
+    <col min="2" max="3" width="14.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1187</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15</v>
+    <row r="2" ht="15" customHeight="1" spans="1:9">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6">
+        <v>522</v>
+      </c>
+      <c r="C2" s="6">
+        <v>551</v>
+      </c>
+      <c r="D2" s="6">
+        <v>90</v>
+      </c>
+      <c r="E2" s="6">
+        <v>29</v>
+      </c>
+      <c r="F2" s="6">
+        <v>5400</v>
+      </c>
+      <c r="G2" s="6">
+        <v>5330</v>
+      </c>
+      <c r="H2" s="6">
+        <v>850</v>
+      </c>
+      <c r="I2" s="10">
+        <v>-70</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1322</v>
-      </c>
-      <c r="C3" s="1">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2">
-        <v>25</v>
+    <row r="3" ht="14.25" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>788</v>
+      </c>
+      <c r="C3" s="6">
+        <v>855</v>
+      </c>
+      <c r="D3" s="6">
+        <v>188</v>
+      </c>
+      <c r="E3" s="6">
+        <v>67</v>
+      </c>
+      <c r="F3" s="6">
+        <v>8922</v>
+      </c>
+      <c r="G3" s="6">
+        <v>10191</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2210</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1269</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1429</v>
-      </c>
-      <c r="C4" s="1">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2">
-        <v>30</v>
+    <row r="4" ht="14.25" spans="1:9">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
+        <v>140</v>
+      </c>
+      <c r="C4" s="6">
+        <v>127</v>
+      </c>
+      <c r="D4" s="6">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-13</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1878</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2541</v>
+      </c>
+      <c r="H4" s="6">
+        <v>323</v>
+      </c>
+      <c r="I4" s="6">
+        <v>663</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1579</v>
-      </c>
-      <c r="C5" s="1">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2">
-        <v>15</v>
+    <row r="5" ht="15" customHeight="1" spans="1:9">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6">
+        <v>320</v>
+      </c>
+      <c r="C5" s="6">
+        <v>352</v>
+      </c>
+      <c r="D5" s="6">
+        <v>70</v>
+      </c>
+      <c r="E5" s="6">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4500</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4306</v>
+      </c>
+      <c r="H5" s="6">
+        <v>855</v>
+      </c>
+      <c r="I5" s="6">
+        <v>-194</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1621</v>
-      </c>
-      <c r="C6" s="1">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2">
-        <v>21</v>
+    <row r="6" ht="15" customHeight="1" spans="1:9">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6">
+        <v>540</v>
+      </c>
+      <c r="C6" s="6">
+        <v>436</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-104</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5300</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5346</v>
+      </c>
+      <c r="H6" s="6">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>2025</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1675</v>
-      </c>
-      <c r="C7" s="1">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2">
-        <v>26</v>
+    <row r="7" ht="15" customHeight="1" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2310</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2322</v>
+      </c>
+      <c r="D7" s="9">
+        <v>368</v>
+      </c>
+      <c r="E7" s="9">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9">
+        <v>26000</v>
+      </c>
+      <c r="G7" s="9">
+        <v>27714</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4244</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1714</v>
       </c>
     </row>
+    <row r="9" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1129,31 +1499,228 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="23.75" customWidth="1"/>
+    <col min="9" max="9" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:9">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6">
+        <v>522</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6">
+        <v>5400</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>788</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6">
+        <v>8922</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:9">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
+        <v>140</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1878</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:9">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6">
+        <v>320</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4500</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:9">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6">
+        <v>540</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5300</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2310</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9">
+        <v>26000</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
